--- a/inequalities/CF_rank.xlsx
+++ b/inequalities/CF_rank.xlsx
@@ -374,13 +374,13 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2331</v>
+        <v>0.9543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3511</v>
+        <v>0.2767</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3945</v>
+        <v>1.1963</v>
       </c>
     </row>
     <row r="3">
@@ -388,13 +388,13 @@
         <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3595</v>
+        <v>0.3037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1273</v>
+        <v>0.1093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5844</v>
+        <v>0.6813</v>
       </c>
     </row>
     <row r="4">
@@ -402,13 +402,13 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7978</v>
+        <v>0.4568</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0846</v>
+        <v>0.0501</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0218</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="5">
@@ -416,13 +416,13 @@
         <v>-0.5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5718</v>
+        <v>0.4837</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2651</v>
+        <v>0.2121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6695</v>
+        <v>0.6101</v>
       </c>
     </row>
     <row r="6">
@@ -430,13 +430,13 @@
         <v>-0.5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2717</v>
+        <v>0.2686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1141</v>
+        <v>0.1064</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4054</v>
+        <v>0.4864</v>
       </c>
     </row>
     <row r="7">
@@ -444,13 +444,13 @@
         <v>-0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4125</v>
+        <v>0.2563</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0732</v>
+        <v>0.0456</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5399</v>
+        <v>0.3821</v>
       </c>
     </row>
     <row r="8">
@@ -458,13 +458,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3666</v>
+        <v>0.3326</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2038</v>
+        <v>0.1838</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4601</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="9">
@@ -472,13 +472,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2303</v>
+        <v>0.2537</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1043</v>
+        <v>0.1083</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3283</v>
+        <v>0.4132</v>
       </c>
     </row>
     <row r="10">
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2607</v>
+        <v>0.1748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0657</v>
+        <v>0.0424</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3762</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="11">
@@ -500,13 +500,13 @@
         <v>0.5</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3093</v>
+        <v>0.2913</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1903</v>
+        <v>0.1712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3986</v>
+        <v>0.3834</v>
       </c>
     </row>
     <row r="12">
@@ -514,13 +514,13 @@
         <v>0.5</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2205</v>
+        <v>0.2566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1008</v>
+        <v>0.1097</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3166</v>
+        <v>0.4022</v>
       </c>
     </row>
     <row r="13">
@@ -528,13 +528,13 @@
         <v>0.5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1972</v>
+        <v>0.1402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0604</v>
+        <v>0.0409</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3066</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="14">
@@ -542,13 +542,13 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.331</v>
+        <v>0.311</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1968</v>
+        <v>0.178</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4297</v>
+        <v>0.4196</v>
       </c>
     </row>
     <row r="15">
@@ -556,13 +556,13 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2423</v>
+        <v>0.279</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1023</v>
+        <v>0.1154</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3383</v>
+        <v>0.4466</v>
       </c>
     </row>
     <row r="16">
@@ -570,13 +570,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>0.173</v>
+        <v>0.1268</v>
       </c>
       <c r="C16" t="n">
-        <v>0.057</v>
+        <v>0.0385</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2895</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="17">
@@ -584,13 +584,13 @@
         <v>1.5</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4578</v>
+        <v>0.4029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2319</v>
+        <v>0.2105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5759</v>
+        <v>0.5558</v>
       </c>
     </row>
     <row r="18">
@@ -598,13 +598,13 @@
         <v>1.5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3138</v>
+        <v>0.328</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1066</v>
+        <v>0.1281</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4453</v>
+        <v>0.562</v>
       </c>
     </row>
     <row r="19">
@@ -612,13 +612,13 @@
         <v>1.5</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1718</v>
+        <v>0.1254</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0538</v>
+        <v>0.038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3112</v>
+        <v>0.2606</v>
       </c>
     </row>
     <row r="20">
@@ -626,13 +626,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8623</v>
+        <v>0.6436</v>
       </c>
       <c r="C20" t="n">
-        <v>0.302</v>
+        <v>0.2619</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0703</v>
+        <v>0.9768</v>
       </c>
     </row>
     <row r="21">
@@ -640,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4929</v>
+        <v>0.4187</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1157</v>
+        <v>0.1421</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7049</v>
+        <v>0.8766</v>
       </c>
     </row>
     <row r="22">
@@ -654,13 +654,13 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1908</v>
+        <v>0.1331</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0554</v>
+        <v>0.0371</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3842</v>
+        <v>0.3163</v>
       </c>
     </row>
   </sheetData>
